--- a/inputs/AQI_breakpoint.xlsx
+++ b/inputs/AQI_breakpoint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moorthymnair/Documents/Work@ICCT/Git-Models/Personal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moorthymnair/Documents/Work@ICCT/Git-Models/Personal/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B64D2F-06FC-AC40-9717-8A45B7009CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2235F96-A932-0F49-B7EB-720F14606F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pm25_US" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="37">
   <si>
     <t>AQI</t>
   </si>
@@ -135,6 +135,27 @@
   </si>
   <si>
     <t>101-200</t>
+  </si>
+  <si>
+    <t>Health Impacts</t>
+  </si>
+  <si>
+    <t>Minimal impacts on health</t>
+  </si>
+  <si>
+    <t>Breathing discomfort to the people with lung disease such as asthma and discomfort to people with heart disease, children and older adults</t>
+  </si>
+  <si>
+    <t>Respiratory illness to the people on prolonged exposure. Effect may be more pronounced in people with lung and heart diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respiratory effects even on healthy people and serious health impacts on people with lung and heart diseases. The health impacts may be expirenced even during light physical activity </t>
+  </si>
+  <si>
+    <t>Minor breathing discomfort to sensitive people</t>
+  </si>
+  <si>
+    <t>Breathing discomfort to people on prolonged exposure and discomfort to people with heart disease</t>
   </si>
 </sst>
 </file>
@@ -1261,15 +1282,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF8F592-122B-4444-AAC4-0D1E431C5CA4}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1282,8 +1303,11 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1296,8 +1320,11 @@
       <c r="D2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1310,8 +1337,11 @@
       <c r="D3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="D4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1338,8 +1371,11 @@
       <c r="D5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1352,8 +1388,11 @@
       <c r="D6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1365,6 +1404,9 @@
       </c>
       <c r="D7">
         <v>500</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2157,7 +2199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B3FEFA-804F-4D47-8545-50CA5E3F6D3F}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
